--- a/ProyectoPooDist/excels/creditos.xlsx
+++ b/ProyectoPooDist/excels/creditos.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE2E4AB-70AD-4150-90E9-AC169FFEFFF5}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G12" sqref="G12:G13"/>
@@ -524,7 +524,7 @@
         <v>1.0</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I3" t="n" s="0">
         <v>84.0</v>
@@ -557,6 +557,180 @@
       </c>
       <c r="I4" t="n" s="0">
         <v>64.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>198.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>179.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>245.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>230.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B7" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>245.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>230.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>198.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>179.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>198.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>190.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B10" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>198.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>179.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/ProyectoPooDist/excels/creditos.xlsx
+++ b/ProyectoPooDist/excels/creditos.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE2E4AB-70AD-4150-90E9-AC169FFEFFF5}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G12" sqref="G12:G13"/>
@@ -733,6 +733,35 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B11" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>245.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>230.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProyectoPooDist/excels/creditos.xlsx
+++ b/ProyectoPooDist/excels/creditos.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE2E4AB-70AD-4150-90E9-AC169FFEFFF5}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G12" sqref="G12:G13"/>
@@ -762,6 +762,35 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>140.0</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>132.0</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProyectoPooDist/excels/creditos.xlsx
+++ b/ProyectoPooDist/excels/creditos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programacion 3\proyecto\Proyecto-Poo-Dist\ProyectoPooDist\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0628D4-ADE4-4BE6-A6E8-F90D50C20F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F2C2EB-FF8A-4275-B9FD-E8784DEEFDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3576" yWindow="1584" windowWidth="15588" windowHeight="10260" xr2:uid="{BC9C333F-00BF-4FA3-9D9E-618EA6639257}"/>
+    <workbookView xWindow="4860" yWindow="1476" windowWidth="22812" windowHeight="10260" xr2:uid="{BC9C333F-00BF-4FA3-9D9E-618EA6639257}"/>
   </bookViews>
   <sheets>
     <sheet name="Ventas" sheetId="1" r:id="rId1"/>
@@ -435,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE2E4AB-70AD-4150-90E9-AC169FFEFFF5}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:G13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -640,7 +640,7 @@
         <v>1.0</v>
       </c>
       <c r="H7" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I7" t="n" s="0">
         <v>60.0</v>
@@ -715,10 +715,10 @@
         <v>2.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>198.0</v>
+        <v>-100.0</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>179.0</v>
+        <v>190.0</v>
       </c>
       <c r="F10" t="n" s="0">
         <v>3.0</v>
@@ -747,7 +747,7 @@
         <v>245.0</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>230.0</v>
+        <v>240.0</v>
       </c>
       <c r="F11" t="n" s="0">
         <v>3.0</v>
@@ -756,10 +756,10 @@
         <v>1.0</v>
       </c>
       <c r="H11" t="n" s="0">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I11" t="n" s="0">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="12">
@@ -789,6 +789,151 @@
       </c>
       <c r="I12" t="n" s="0">
         <v>5.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>140.0</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>132.0</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B14" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>140.0</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>132.0</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B15" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>198.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>179.0</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B16" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>245.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>230.0</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="B17" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="C17" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="D17" t="n" s="0">
+        <v>245.0</v>
+      </c>
+      <c r="E17" t="n" s="0">
+        <v>240.0</v>
+      </c>
+      <c r="F17" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="G17" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I17" t="n" s="0">
+        <v>12.0</v>
       </c>
     </row>
   </sheetData>

--- a/ProyectoPooDist/excels/creditos.xlsx
+++ b/ProyectoPooDist/excels/creditos.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE2E4AB-70AD-4150-90E9-AC169FFEFFF5}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -936,6 +936,93 @@
         <v>12.0</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B18" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="C18" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D18" t="n" s="0">
+        <v>140.0</v>
+      </c>
+      <c r="E18" t="n" s="0">
+        <v>132.0</v>
+      </c>
+      <c r="F18" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G18" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I18" t="n" s="0">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="B19" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="C19" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>255.0</v>
+      </c>
+      <c r="E19" t="n" s="0">
+        <v>240.0</v>
+      </c>
+      <c r="F19" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G19" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I19" t="n" s="0">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B20" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="C20" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>188.0</v>
+      </c>
+      <c r="E20" t="n" s="0">
+        <v>184.0</v>
+      </c>
+      <c r="F20" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G20" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H20" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I20" t="n" s="0">
+        <v>2.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProyectoPooDist/excels/creditos.xlsx
+++ b/ProyectoPooDist/excels/creditos.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE2E4AB-70AD-4150-90E9-AC169FFEFFF5}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -1023,6 +1023,93 @@
         <v>2.0</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B21" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="C21" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D21" t="n" s="0">
+        <v>195.0</v>
+      </c>
+      <c r="E21" t="n" s="0">
+        <v>179.0</v>
+      </c>
+      <c r="F21" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G21" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H21" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I21" t="n" s="0">
+        <v>91.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B22" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="C22" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="D22" t="n" s="0">
+        <v>234.0</v>
+      </c>
+      <c r="E22" t="n" s="0">
+        <v>230.0</v>
+      </c>
+      <c r="F22" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G22" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H22" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I22" t="n" s="0">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B23" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="C23" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="D23" t="n" s="0">
+        <v>198.0</v>
+      </c>
+      <c r="E23" t="n" s="0">
+        <v>184.0</v>
+      </c>
+      <c r="F23" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G23" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H23" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I23" t="n" s="0">
+        <v>1100.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProyectoPooDist/excels/creditos.xlsx
+++ b/ProyectoPooDist/excels/creditos.xlsx
@@ -435,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE2E4AB-70AD-4150-90E9-AC169FFEFFF5}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -1110,6 +1110,35 @@
         <v>1100.0</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B24" t="n" s="0">
+        <v>1000.0</v>
+      </c>
+      <c r="C24" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="D24" t="n" s="0">
+        <v>188.0</v>
+      </c>
+      <c r="E24" t="n" s="0">
+        <v>184.0</v>
+      </c>
+      <c r="F24" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G24" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H24" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I24" t="n" s="0">
+        <v>1000.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProyectoPooDist/excels/creditos.xlsx
+++ b/ProyectoPooDist/excels/creditos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseg\Downloads\PROYECTO CINDY\Proyecto-Poo-Dist\ProyectoPooDist\excels\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,11 +36,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Indice Producto</t>
+  </si>
+  <si>
+    <t>Indice Cantidad</t>
+  </si>
+  <si>
+    <t>Indice Cliente</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>Precio Costo</t>
+  </si>
+  <si>
+    <t>Precio Flete</t>
+  </si>
+  <si>
+    <t>Credito</t>
+  </si>
+  <si>
+    <t>Credito Activo</t>
+  </si>
+  <si>
+    <t>Ganancia</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -406,14 +435,247 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE2E4AB-70AD-4150-90E9-AC169FFEFFF5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>140.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>132.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>245.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>230.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>255.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>230.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>255.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>240.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>360.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>260.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>240.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B7" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>245.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>230.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>245.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>240.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>2.0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>